--- a/r5-LinkedCare-dev/StructureDefinition-licaprescription-medication-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-licaprescription-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-19T15:02:19+00:00</t>
+    <t>2023-05-25T14:49:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-licaprescription-medication-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-licaprescription-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-25T14:49:04+00:00</t>
+    <t>2023-05-25T15:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-licaprescription-medication-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-licaprescription-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-25T15:18:34+00:00</t>
+    <t>2023-05-26T07:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-licaprescription-medication-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-licaprescription-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-26T07:34:33+00:00</t>
+    <t>2023-05-30T07:39:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-licaprescription-medication-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-licaprescription-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T07:39:15+00:00</t>
+    <t>2023-05-30T09:26:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-licaprescription-medication-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-licaprescription-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-19T09:14:41+00:00</t>
+    <t>2023-06-21T13:25:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-licaprescription-medication-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-licaprescription-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-21T13:25:12+00:00</t>
+    <t>2023-06-21T13:54:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-licaprescription-medication-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-licaprescription-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-21T13:54:25+00:00</t>
+    <t>2023-08-16T07:59:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-licaprescription-medication-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-licaprescription-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T07:59:44+00:00</t>
+    <t>2023-08-22T11:05:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/MedicationRequest</t>
+    <t>http://fhir.hl7.at/linkedcare/StructureDefinition/lincaorder-medication-request</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -425,7 +425,7 @@
     <t>MedicationRequest.groupIdentifier</t>
   </si>
   <si>
-    <t>Composite request this is part of</t>
+    <t>reserved for LINCA identifier of the request orchestration</t>
   </si>
   <si>
     <t>A shared identifier common to multiple independent Request instances that were activated/authorized more or less simultaneously by a single author.  The presence of the same identifier on each request ties those requests together and may have business ramifications in terms of reporting of results, billing, etc.  E.g. a requisition number shared by a set of lab tests ordered together, or a prescription number shared by all meds ordered at one time.</t>
@@ -623,7 +623,7 @@
     <t>MedicationRequest.medication</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(Medication)
+    <t xml:space="preserve">CodeableReference(http://fhir.hl7.at/linkedcare/StructureDefinition/linca-medication)
 </t>
   </si>
   <si>
@@ -666,7 +666,7 @@
     <t>MedicationRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(http://fhir.hl7.at/linkedcare/StructureDefinition/at-core-patient)
 </t>
   </si>
   <si>
@@ -850,7 +850,7 @@
     <t>MedicationRequest.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|DeviceDefinition|RelatedPerson|CareTeam|HealthcareService)
+    <t xml:space="preserve">Reference(Practitioner)
 </t>
   </si>
   <si>
@@ -1728,7 +1728,7 @@
     <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="114.30078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.00390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>37</v>
@@ -4338,10 +4338,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -5151,10 +5151,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>

--- a/r5-LinkedCare-dev/StructureDefinition-licaprescription-medication-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-licaprescription-medication-request.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3533" uniqueCount="649">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T11:05:59+00:00</t>
+    <t>2023-08-23T16:18:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>FHIR Base Profile for Medication Data after practicioner filled order in LICA system</t>
+    <t>Prescription send by practicioner software. Is always based on order but might differ due to changes.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -143,6 +143,10 @@
     <t>An order or request for both supply of the medication and the instructions for administration of the medication to a patient. The resource is called "MedicationRequest" rather than "MedicationPrescription" or "MedicationOrder" to generalize the use across inpatient and outpatient settings, including care plans, etc., and to harmonize with workflow patterns.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(ofType(canonical) = '#').exists() or descendants().where(ofType(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
     <t>Request</t>
   </si>
   <si>
@@ -388,7 +392,7 @@
 </t>
   </si>
   <si>
-    <t>A plan or request that is fulfilled in whole or in part by this medication request</t>
+    <t>Order item this prescription is based on</t>
   </si>
   <si>
     <t>A plan or request that is fulfilled in whole or in part by this medication request.</t>
@@ -425,7 +429,7 @@
     <t>MedicationRequest.groupIdentifier</t>
   </si>
   <si>
-    <t>reserved for LINCA identifier of the request orchestration</t>
+    <t>ID for the electric prescription (eRezeptID)</t>
   </si>
   <si>
     <t>A shared identifier common to multiple independent Request instances that were activated/authorized more or less simultaneously by a single author.  The presence of the same identifier on each request ties those requests together and may have business ramifications in terms of reporting of results, billing, etc.  E.g. a requisition number shared by a set of lab tests ordered together, or a prescription number shared by all meds ordered at one time.</t>
@@ -627,7 +631,7 @@
 </t>
   </si>
   <si>
-    <t>Medication to be taken</t>
+    <t>Medication conforming ELGA CodingSystems. At least the central pharma number must be given</t>
   </si>
   <si>
     <t>Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
@@ -670,7 +674,7 @@
 </t>
   </si>
   <si>
-    <t>Individual or group for whom the medication has been requested</t>
+    <t>Each LINCAOrderMedicationRequest is affiliated with one patient. The patient data is conform to the HL7 Austria patient.</t>
   </si>
   <si>
     <t>The individual or group for whom the medication has been requested.</t>
@@ -703,7 +707,7 @@
 </t>
   </si>
   <si>
-    <t>The person or organization who provided the information about this request, if the source is someone other than the requestor</t>
+    <t>Who ordered this</t>
   </si>
   <si>
     <t>The person or organization who provided the information about this request, if the source is someone other than the requestor.  This is often used when the MedicationRequest is reported by another person.</t>
@@ -756,10 +760,26 @@
     <t>This attribute can be used to reference a MedicationStatement about the patients' medication use.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:text}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Request.supportingInfo</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=PERT].target[A_SupportingClinicalStatement CMET minimal with many different choices of classCodes(ORG, ENC, PROC, SPLY, SBADM, OBS) and each of the act class codes draws from one or more of the following moodCodes (EVN, DEF, INT PRMS, RQO, PRP, APT, ARQ, GOL)]</t>
+  </si>
+  <si>
+    <t>MedicationRequest.supportingInformation:orderref</t>
+  </si>
+  <si>
+    <t>orderref</t>
+  </si>
+  <si>
+    <t>Reference to origin (LINCARequestOrchestration) assigned on LinkedCare Platform. Used to link instantiated order items back to their order (LINCARequestOrchestration).</t>
   </si>
   <si>
     <t>MedicationRequest.authoredOn</t>
@@ -793,7 +813,7 @@
 </t>
   </si>
   <si>
-    <t>Who/What requested the Request</t>
+    <t>If the requester differs from the information source</t>
   </si>
   <si>
     <t>The individual, organization, or device that initiated the request and has responsibility for its activation.</t>
@@ -854,7 +874,7 @@
 </t>
   </si>
   <si>
-    <t>Intended performer of administration</t>
+    <t>The authorizing practicioner for this order item.</t>
   </si>
   <si>
     <t>The specified desired performer of the medication treatment (e.g. the performer of the medication administration).  For devices, this is the device that is intended to perform the administration of the medication.  An IV Pump would be an example of a device that is performing the administration.  Both the IV Pump and the practitioner that set the rate or bolus on the pump can be listed as performers.</t>
@@ -1042,7 +1062,7 @@
 </t>
   </si>
   <si>
-    <t>Specific instructions for how the medication should be taken</t>
+    <t>At least textual instruction required</t>
   </si>
   <si>
     <t>Specific instructions for how the medication is to be used by the patient.</t>
@@ -1061,6 +1081,661 @@
     <t>see dosageInstruction mapping</t>
   </si>
   <si>
+    <t>MedicationRequest.dosageInstruction.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneType.modifierExtension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer
+</t>
+  </si>
+  <si>
+    <t>The order of the dosage instructions</t>
+  </si>
+  <si>
+    <t>Indicates the order in which the dosage instructions should be applied or interpreted.</t>
+  </si>
+  <si>
+    <t>If the sequence number of multiple Dosages is the same, then it is implied that the instructions are to be treated as concurrent.  If the sequence number is different, then the Dosages are intended to be sequential.</t>
+  </si>
+  <si>
+    <t>Dosage.sequence</t>
+  </si>
+  <si>
+    <t>.text</t>
+  </si>
+  <si>
+    <t>TQ1-1</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Free text dosage instructions e.g. SIG</t>
+  </si>
+  <si>
+    <t>Free text dosage instructions e.g. SIG.</t>
+  </si>
+  <si>
+    <t>Free text dosage instructions can be used for cases where the instructions are too complex to code.  The content of this attribute does not include the name or description of the medication. When coded instructions are present, the free text instructions may still be present for display to humans taking or administering the medication. It is expected that the text instructions will always be populated.  If the dosage.timing attribute is also populated, then the dosage.text should reflect the same information as the timing.  Additional information about administration or preparation of the medication should be included as text.</t>
+  </si>
+  <si>
+    <t>Dosage.text</t>
+  </si>
+  <si>
+    <t>RXO-6; RXE-21</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.additionalInstruction</t>
+  </si>
+  <si>
+    <t>Supplemental instruction or warnings to the patient - e.g. "with meals", "may cause drowsiness"</t>
+  </si>
+  <si>
+    <t>Supplemental instructions to the patient on how to take the medication  (e.g. "with meals" or"take half to one hour before food") or warnings for the patient about the medication (e.g. "may cause drowsiness" or "avoid exposure of skin to direct sunlight or sunlamps").</t>
+  </si>
+  <si>
+    <t>Information about administration or preparation of the medication (e.g. "infuse as rapidly as possibly via intraperitoneal port" or take "immediately following drug x") should be populated in dosage.text.</t>
+  </si>
+  <si>
+    <t>Additional instruction is intended to be coded, but where no code exists, the element could include text.  For example, "Swallow with plenty of water" which might or might not be coded.</t>
+  </si>
+  <si>
+    <t>A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
+  </si>
+  <si>
+    <t>Dosage.additionalInstruction</t>
+  </si>
+  <si>
+    <t>RXO-7</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.patientInstruction</t>
+  </si>
+  <si>
+    <t>Patient or consumer oriented instructions</t>
+  </si>
+  <si>
+    <t>Instructions in terms that are understood by the patient or consumer.</t>
+  </si>
+  <si>
+    <t>Dosage.patientInstruction</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timing
+</t>
+  </si>
+  <si>
+    <t>When medication should be administered</t>
+  </si>
+  <si>
+    <t>When medication should be administered.</t>
+  </si>
+  <si>
+    <t>This attribute might not always be populated while the Dosage.text is expected to be populated.  If both are populated, then the Dosage.text should reflect the content of the Dosage.timing.</t>
+  </si>
+  <si>
+    <t>The timing schedule for giving the medication to the patient. This  data type allows many different expressions. For example: "Every 8 hours"; "Three times a day"; "1/2 an hour before breakfast for 10 days from 23-Dec 2011:"; "15 Oct 2013, 17 Oct 2013 and 1 Nov 2013".  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
+  </si>
+  <si>
+    <t>Dosage.timing</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.asNeeded</t>
+  </si>
+  <si>
+    <t>Take "as needed"</t>
+  </si>
+  <si>
+    <t>Indicates whether the Medication is only taken when needed within a specific dosing schedule (Boolean option).</t>
+  </si>
+  <si>
+    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.</t>
+  </si>
+  <si>
+    <t>Dosage.asNeeded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dos-1
+</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=PRCN].target[classCode=OBS, moodCode=EVN, code="as needed"].value=boolean or codable concept</t>
+  </si>
+  <si>
+    <t>TQ1-9</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.asNeededFor</t>
+  </si>
+  <si>
+    <t>Take "as needed" (for x)</t>
+  </si>
+  <si>
+    <t>Indicates whether the Medication is only taken based on a precondition for taking the Medication (CodeableConcept).</t>
+  </si>
+  <si>
+    <t>Can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
+  </si>
+  <si>
+    <t>A coded concept identifying the precondition that should be met or evaluated prior to consuming or administering a medication dose.  For example "pain", "30 minutes prior to sexual intercourse", "on flare-up" etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+  </si>
+  <si>
+    <t>Dosage.asNeededFor</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.site</t>
+  </si>
+  <si>
+    <t>Body site to administer to</t>
+  </si>
+  <si>
+    <t>Body site to administer to.</t>
+  </si>
+  <si>
+    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [http://hl7.org/fhir/StructureDefinition/bodySite](http://hl7.org/fhir/extensions/StructureDefinition-bodySite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
+  </si>
+  <si>
+    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
+  </si>
+  <si>
+    <t>Dosage.site</t>
+  </si>
+  <si>
+    <t>.approachSiteCode</t>
+  </si>
+  <si>
+    <t>RXR-2</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route</t>
+  </si>
+  <si>
+    <t>How drug should enter body</t>
+  </si>
+  <si>
+    <t>How drug should enter body.</t>
+  </si>
+  <si>
+    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+  </si>
+  <si>
+    <t>Dosage.route</t>
+  </si>
+  <si>
+    <t>.routeCode</t>
+  </si>
+  <si>
+    <t>RXR-1</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.method</t>
+  </si>
+  <si>
+    <t>Technique for administering medication</t>
+  </si>
+  <si>
+    <t>Technique for administering medication.</t>
+  </si>
+  <si>
+    <t>Terminologies used often pre-coordinate this term with the route and or form of administration.</t>
+  </si>
+  <si>
+    <t>A coded value indicating the method by which the medication is introduced into or onto the body. Most commonly used for injections.  For examples, Slow Push; Deep IV.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the technique by which the medicine is administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
+  </si>
+  <si>
+    <t>Dosage.method</t>
+  </si>
+  <si>
+    <t>SubstanceAdministration.methodCode</t>
+  </si>
+  <si>
+    <t>RXR-4</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element
+</t>
+  </si>
+  <si>
+    <t>Amount of medication administered, to be administered or typical amount to be administered</t>
+  </si>
+  <si>
+    <t>Depending on the resource,this is the amount of medication administered, to  be administered or typical amount to be administered.</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate</t>
+  </si>
+  <si>
+    <t>SubstanceAdministration.doseQuantity; SubstanceAdministration.RateQuantity</t>
+  </si>
+  <si>
+    <t>TQ1-2</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.type</t>
+  </si>
+  <si>
+    <t>The kind of dose or rate specified</t>
+  </si>
+  <si>
+    <t>The kind of dose or rate specified, for example, ordered or calculated.</t>
+  </si>
+  <si>
+    <t>If the type is not populated, assume to be "ordered".</t>
+  </si>
+  <si>
+    <t>The kind of dose or rate specified.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/dose-rate-type</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.type</t>
+  </si>
+  <si>
+    <t>RXO-21; RXE-23</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x]</t>
+  </si>
+  <si>
+    <t>Range
+Quantity {SimpleQuantity}</t>
+  </si>
+  <si>
+    <t>Amount of medication per dose</t>
+  </si>
+  <si>
+    <t>Amount of medication per dose.</t>
+  </si>
+  <si>
+    <t>Note that this specifies the quantity of the specified medication, not the quantity for each active ingredient(s). Each ingredient amount can be communicated in the Medication resource. For example, if one wants to communicate that a tablet was 375 mg, where the dose was one tablet, you can use the Medication resource to document that the tablet was comprised of 375 mg of drug XYZ. Alternatively if the dose was 375 mg, then you may only need to use the Medication resource to indicate this was a tablet. If the example were an IV such as dopamine and you wanted to communicate that 400mg of dopamine was mixed in 500 ml of some IV solution, then this would all be communicated in the Medication resource. If the administration is not intended to be instantaneous (rate is present or timing has a duration), this can be specified to convey the total amount to be administered over the period of time as indicated by the schedule e.g. 500 ml in dose, with timing used to convey that this should be done over 4 hours.</t>
+  </si>
+  <si>
+    <t>The amount of therapeutic or other substance given at one administration event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.dose[x]</t>
+  </si>
+  <si>
+    <t>.doseQuantity</t>
+  </si>
+  <si>
+    <t>RXO-2, RXE-3</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x]:doseQuantity</t>
+  </si>
+  <si>
+    <t>doseQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>A fixed quantity (no comparator)</t>
+  </si>
+  <si>
+    <t>The comparator is not used on a SimpleQuantity</t>
+  </si>
+  <si>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+  </si>
+  <si>
+    <t>n/a,PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+  </si>
+  <si>
+    <t>SN (see also Range) or CQ</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x]:doseQuantity.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x]:doseQuantity.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x]:doseQuantity.value</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x]:doseQuantity.comparator</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; | ad - how to understand the value</t>
+  </si>
+  <si>
+    <t>Not allowed to be used in this context</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|5.0.0</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x]:doseQuantity.unit</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x]:doseQuantity.system</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x]:doseQuantity.code</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>https://termgit.elga.gv.at/ValueSet/elga-medikationdarreichungsform</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.rate[x]</t>
+  </si>
+  <si>
+    <t>Ratio
+RangeQuantity {SimpleQuantity}</t>
+  </si>
+  <si>
+    <t>Amount of medication per unit of time</t>
+  </si>
+  <si>
+    <t>Amount of medication per unit of time.</t>
+  </si>
+  <si>
+    <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.++It is possible to specify a rate over time (for example, 100 ml/hour) using either the rateRatio and rateQuantity.  The rateQuantity approach requires systems to have the capability to parse UCUM grammar where ml/hour is included rather than a specific ratio where the time is specified as the denominator.  Where a rate such as 500ml over 2 hours is specified, the use of rateRatio may be more semantically correct than specifying using a rateQuantity of 250 mg/hour.</t>
+  </si>
+  <si>
+    <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x]</t>
+  </si>
+  <si>
+    <t>.rateQuantity</t>
+  </si>
+  <si>
+    <t>RXE22, RXE23, RXE-24</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.maxDosePerPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio
+</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per unit of time</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per unit of time.</t>
+  </si>
+  <si>
+    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example "2 tablets every 4 hours to a maximum of 8/day".</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerPeriod</t>
+  </si>
+  <si>
+    <t>.maxDoseQuantity</t>
+  </si>
+  <si>
+    <t>RXO-23, RXE-19</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.maxDosePerAdministration</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per administration</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per administration.</t>
+  </si>
+  <si>
+    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example, a body surface area related dose with a maximum amount, such as 1.5 mg/m2 (maximum 2 mg) IV over 5 – 10 minutes would have doseQuantity of 1.5 mg/m2 and maxDosePerAdministration of 2 mg.</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerAdministration</t>
+  </si>
+  <si>
+    <t>not supported</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.maxDosePerLifetime</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per lifetime of the patient</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per lifetime of the patient.</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerLifetime</t>
+  </si>
+  <si>
     <t>MedicationRequest.dispenseRequest</t>
   </si>
   <si>
@@ -1083,49 +1758,12 @@
     <t>MedicationRequest.dispenseRequest.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationRequest.dispenseRequest.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>MedicationRequest.dispenseRequest.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
     <t>BackboneElement.modifierExtension</t>
   </si>
   <si>
@@ -1154,10 +1792,6 @@
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.initialFill.quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
   </si>
   <si>
     <t>First fill quantity</t>
@@ -1711,7 +2345,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO64"/>
+  <dimension ref="A1:AO95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1720,8 +2354,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.28515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="60.28515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="80.05859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="67.1484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.3359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -1734,6 +2369,7 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
@@ -1741,18 +2377,16 @@
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="97.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="198.02734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="11.48828125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="59.37890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="23.28515625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
@@ -1858,19 +2492,19 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>38</v>
@@ -1878,10 +2512,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1892,7 +2526,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -1901,19 +2535,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1963,13 +2597,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1995,10 +2629,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2009,7 +2643,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -2018,16 +2652,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2078,19 +2712,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2110,10 +2744,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2124,28 +2758,28 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2195,19 +2829,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2227,10 +2861,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2241,7 +2875,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2253,16 +2887,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2288,13 +2922,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -2312,19 +2946,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2344,21 +2978,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2370,16 +3004,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2429,19 +3063,19 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
@@ -2453,7 +3087,7 @@
         <v>38</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>38</v>
@@ -2461,21 +3095,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>38</v>
@@ -2487,16 +3121,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2546,7 +3180,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
@@ -2555,7 +3189,7 @@
         <v>37</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>38</v>
@@ -2570,7 +3204,7 @@
         <v>38</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>38</v>
@@ -2578,14 +3212,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2604,16 +3238,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2663,7 +3297,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -2675,7 +3309,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -2687,7 +3321,7 @@
         <v>38</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>38</v>
@@ -2695,14 +3329,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2715,25 +3349,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -2782,7 +3416,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2794,7 +3428,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -2806,7 +3440,7 @@
         <v>38</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>38</v>
@@ -2814,10 +3448,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2840,16 +3474,16 @@
         <v>38</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2899,7 +3533,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -2911,30 +3545,30 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2954,16 +3588,16 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3014,7 +3648,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -3026,10 +3660,10 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>38</v>
@@ -3038,7 +3672,7 @@
         <v>38</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>38</v>
@@ -3046,10 +3680,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3060,7 +3694,7 @@
         <v>36</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>38</v>
@@ -3072,13 +3706,13 @@
         <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3129,31 +3763,31 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>38</v>
@@ -3161,10 +3795,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3175,7 +3809,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>38</v>
@@ -3184,20 +3818,20 @@
         <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>38</v>
@@ -3246,22 +3880,22 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>38</v>
@@ -3270,7 +3904,7 @@
         <v>38</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>38</v>
@@ -3278,10 +3912,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3289,31 +3923,31 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3339,13 +3973,13 @@
         <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>38</v>
@@ -3363,31 +3997,31 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>38</v>
@@ -3395,10 +4029,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3409,7 +4043,7 @@
         <v>36</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>38</v>
@@ -3421,16 +4055,16 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3456,13 +4090,13 @@
         <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>38</v>
@@ -3480,22 +4114,22 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>38</v>
@@ -3504,7 +4138,7 @@
         <v>38</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>38</v>
@@ -3512,10 +4146,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3526,7 +4160,7 @@
         <v>36</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
@@ -3538,13 +4172,13 @@
         <v>38</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3595,19 +4229,19 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
@@ -3619,7 +4253,7 @@
         <v>38</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>38</v>
@@ -3627,10 +4261,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3638,31 +4272,31 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3688,13 +4322,13 @@
         <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>38</v>
@@ -3712,31 +4346,31 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>38</v>
@@ -3744,10 +4378,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3770,16 +4404,16 @@
         <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3805,13 +4439,13 @@
         <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>38</v>
@@ -3829,7 +4463,7 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
@@ -3841,19 +4475,19 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>38</v>
@@ -3861,10 +4495,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3875,7 +4509,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -3884,16 +4518,16 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3920,13 +4554,13 @@
         <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>38</v>
@@ -3944,31 +4578,31 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>38</v>
@@ -3976,10 +4610,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3990,28 +4624,28 @@
         <v>36</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4061,19 +4695,19 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
@@ -4085,7 +4719,7 @@
         <v>38</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>38</v>
@@ -4093,10 +4727,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4104,10 +4738,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -4116,19 +4750,19 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4154,13 +4788,13 @@
         <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>38</v>
@@ -4178,42 +4812,42 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4221,10 +4855,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -4233,19 +4867,19 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4295,42 +4929,42 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4338,10 +4972,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -4353,13 +4987,13 @@
         <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4410,7 +5044,7 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
@@ -4422,7 +5056,7 @@
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
@@ -4434,7 +5068,7 @@
         <v>38</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>38</v>
@@ -4442,10 +5076,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4456,7 +5090,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -4468,16 +5102,16 @@
         <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4527,42 +5161,42 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4585,16 +5219,16 @@
         <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4632,19 +5266,17 @@
         <v>38</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>38</v>
+        <v>234</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
@@ -4656,19 +5288,19 @@
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>38</v>
@@ -4676,12 +5308,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>38</v>
       </c>
@@ -4690,7 +5324,7 @@
         <v>36</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -4699,18 +5333,20 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>38</v>
@@ -4759,42 +5395,42 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>238</v>
+        <v>38</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>241</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4805,7 +5441,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
@@ -4814,16 +5450,16 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4874,34 +5510,34 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AL27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
     <row r="28">
@@ -4920,7 +5556,7 @@
         <v>36</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4929,20 +5565,18 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N28" t="s" s="2">
         <v>251</v>
       </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>38</v>
@@ -4997,25 +5631,25 @@
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>38</v>
+        <v>253</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>38</v>
@@ -5023,10 +5657,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5037,7 +5671,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -5046,19 +5680,19 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5084,55 +5718,55 @@
         <v>38</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>257</v>
+        <v>38</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>38</v>
@@ -5140,10 +5774,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5151,10 +5785,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -5163,18 +5797,20 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>263</v>
+        <v>147</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>38</v>
@@ -5199,13 +5835,13 @@
         <v>38</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>38</v>
+        <v>263</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>38</v>
+        <v>265</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>38</v>
@@ -5223,19 +5859,19 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>266</v>
@@ -5244,10 +5880,10 @@
         <v>38</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>38</v>
@@ -5255,10 +5891,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5266,10 +5902,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>38</v>
@@ -5281,13 +5917,13 @@
         <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5338,7 +5974,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
@@ -5350,19 +5986,19 @@
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>38</v>
+        <v>273</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>38</v>
@@ -5370,10 +6006,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5384,7 +6020,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -5396,13 +6032,13 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5453,19 +6089,19 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
@@ -5474,10 +6110,10 @@
         <v>38</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>277</v>
+        <v>38</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>38</v>
@@ -5499,7 +6135,7 @@
         <v>36</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -5519,9 +6155,7 @@
       <c r="M33" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="N33" t="s" s="2">
-        <v>283</v>
-      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>38</v>
@@ -5546,13 +6180,13 @@
         <v>38</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>284</v>
+        <v>38</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>285</v>
+        <v>38</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>38</v>
@@ -5576,36 +6210,36 @@
         <v>36</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>286</v>
+        <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>287</v>
+        <v>38</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>290</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5616,7 +6250,7 @@
         <v>36</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>38</v>
@@ -5628,16 +6262,16 @@
         <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>146</v>
+        <v>286</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5663,66 +6297,66 @@
         <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>257</v>
+        <v>151</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="Z34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5733,7 +6367,7 @@
         <v>36</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>38</v>
@@ -5745,15 +6379,17 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>38</v>
@@ -5778,13 +6414,13 @@
         <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>38</v>
+        <v>263</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>38</v>
@@ -5802,22 +6438,22 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>302</v>
+        <v>38</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>38</v>
@@ -5929,19 +6565,19 @@
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>308</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>38</v>
@@ -5949,10 +6585,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5963,7 +6599,7 @@
         <v>36</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>38</v>
@@ -5975,18 +6611,16 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>314</v>
-      </c>
       <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>315</v>
-      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>38</v>
       </c>
@@ -6034,25 +6668,25 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>38</v>
+        <v>314</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>38</v>
+        <v>315</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>38</v>
@@ -6080,7 +6714,7 @@
         <v>36</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>38</v>
@@ -6101,7 +6735,9 @@
         <v>320</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>38</v>
       </c>
@@ -6155,13 +6791,13 @@
         <v>36</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>38</v>
@@ -6173,7 +6809,7 @@
         <v>38</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>38</v>
@@ -6181,10 +6817,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6195,7 +6831,7 @@
         <v>36</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>
@@ -6207,17 +6843,15 @@
         <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N39" t="s" s="2">
         <v>326</v>
       </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>38</v>
@@ -6266,19 +6900,19 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
@@ -6309,10 +6943,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
@@ -6332,7 +6966,9 @@
       <c r="M40" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="N40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>38</v>
@@ -6387,19 +7023,19 @@
         <v>36</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>332</v>
+        <v>38</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>38</v>
@@ -6427,7 +7063,7 @@
         <v>36</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>38</v>
@@ -6439,13 +7075,13 @@
         <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6496,31 +7132,31 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI41" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AG41" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI41" t="s" s="2">
+      <c r="AJ41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>38</v>
@@ -6528,14 +7164,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6554,16 +7190,16 @@
         <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6601,19 +7237,19 @@
         <v>38</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>38</v>
+        <v>342</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>38</v>
+        <v>343</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>38</v>
+        <v>234</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
@@ -6625,7 +7261,7 @@
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
@@ -6637,7 +7273,7 @@
         <v>38</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>38</v>
@@ -6645,14 +7281,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6665,25 +7301,25 @@
         <v>38</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -6732,7 +7368,7 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
@@ -6744,7 +7380,7 @@
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>38</v>
@@ -6756,7 +7392,7 @@
         <v>38</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>38</v>
@@ -6764,10 +7400,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6778,7 +7414,7 @@
         <v>36</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>38</v>
@@ -6787,21 +7423,21 @@
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>38</v>
       </c>
@@ -6849,19 +7485,19 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>38</v>
@@ -6873,18 +7509,18 @@
         <v>38</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>38</v>
+        <v>357</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6895,7 +7531,7 @@
         <v>36</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -6904,19 +7540,21 @@
         <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>38</v>
       </c>
@@ -6964,19 +7602,19 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>339</v>
+        <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>38</v>
@@ -6988,22 +7626,22 @@
         <v>38</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>38</v>
+        <v>364</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7019,21 +7657,23 @@
         <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>96</v>
+        <v>366</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>38</v>
       </c>
@@ -7057,13 +7697,13 @@
         <v>38</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>38</v>
+        <v>370</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>38</v>
+        <v>371</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>38</v>
@@ -7081,7 +7721,7 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
@@ -7093,7 +7733,7 @@
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
@@ -7105,54 +7745,50 @@
         <v>38</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>38</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>345</v>
+        <v>38</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>95</v>
+        <v>359</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>38</v>
       </c>
@@ -7200,19 +7836,19 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
@@ -7224,18 +7860,18 @@
         <v>38</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>92</v>
+        <v>356</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>38</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7246,7 +7882,7 @@
         <v>36</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>38</v>
@@ -7255,19 +7891,23 @@
         <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>38</v>
       </c>
@@ -7315,19 +7955,19 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
@@ -7339,7 +7979,7 @@
         <v>38</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>38</v>
@@ -7347,10 +7987,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7361,7 +8001,7 @@
         <v>36</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>38</v>
@@ -7370,18 +8010,20 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>363</v>
+        <v>187</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>38</v>
@@ -7430,19 +8072,19 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>38</v>
+        <v>391</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
@@ -7454,18 +8096,18 @@
         <v>38</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>38</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7476,7 +8118,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>38</v>
@@ -7485,18 +8127,20 @@
         <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>363</v>
+        <v>147</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>38</v>
@@ -7521,13 +8165,13 @@
         <v>38</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>38</v>
+        <v>398</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>38</v>
+        <v>399</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>38</v>
@@ -7545,19 +8189,19 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>38</v>
+        <v>391</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>38</v>
@@ -7569,18 +8213,18 @@
         <v>38</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>38</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7591,7 +8235,7 @@
         <v>36</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>38</v>
@@ -7600,22 +8244,22 @@
         <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>318</v>
+        <v>147</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>38</v>
@@ -7640,13 +8284,13 @@
         <v>38</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>38</v>
+        <v>406</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>38</v>
+        <v>407</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>38</v>
@@ -7664,42 +8308,42 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>375</v>
+        <v>38</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>38</v>
+        <v>410</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7710,7 +8354,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>38</v>
@@ -7719,21 +8363,21 @@
         <v>38</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>378</v>
+        <v>147</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>38</v>
       </c>
@@ -7757,13 +8401,13 @@
         <v>38</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>38</v>
+        <v>415</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>38</v>
+        <v>416</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>38</v>
@@ -7781,42 +8425,42 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>382</v>
+        <v>38</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>384</v>
+        <v>419</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7827,7 +8471,7 @@
         <v>36</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>38</v>
@@ -7836,19 +8480,23 @@
         <v>38</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>358</v>
+        <v>147</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>38</v>
       </c>
@@ -7872,13 +8520,13 @@
         <v>38</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>38</v>
+        <v>425</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>38</v>
+        <v>426</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>38</v>
@@ -7896,42 +8544,42 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>388</v>
+        <v>38</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>390</v>
+        <v>429</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7942,7 +8590,7 @@
         <v>36</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>38</v>
@@ -7951,20 +8599,18 @@
         <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>363</v>
+        <v>431</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -8013,42 +8659,42 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>395</v>
+        <v>38</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>396</v>
+        <v>435</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>38</v>
+        <v>436</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8059,7 +8705,7 @@
         <v>36</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
@@ -8071,13 +8717,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>399</v>
+        <v>335</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>400</v>
+        <v>336</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8128,19 +8774,19 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>397</v>
+        <v>337</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>38</v>
+        <v>338</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
@@ -8149,10 +8795,10 @@
         <v>38</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>277</v>
+        <v>38</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>401</v>
+        <v>339</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>38</v>
@@ -8160,14 +8806,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8186,15 +8832,17 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>305</v>
+        <v>96</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>403</v>
+        <v>97</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>38</v>
@@ -8231,19 +8879,19 @@
         <v>38</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>38</v>
+        <v>342</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>38</v>
+        <v>343</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>38</v>
+        <v>234</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>402</v>
+        <v>344</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
@@ -8255,7 +8903,7 @@
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
@@ -8267,7 +8915,7 @@
         <v>38</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>405</v>
+        <v>339</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>38</v>
@@ -8275,10 +8923,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8289,7 +8937,7 @@
         <v>36</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>38</v>
@@ -8298,19 +8946,21 @@
         <v>38</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>408</v>
+        <v>441</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>38</v>
       </c>
@@ -8334,11 +8984,13 @@
         <v>38</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y57" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="Z57" t="s" s="2">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>38</v>
@@ -8356,19 +9008,19 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>406</v>
+        <v>445</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
@@ -8380,18 +9032,18 @@
         <v>38</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>410</v>
+        <v>38</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>38</v>
+        <v>446</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8402,7 +9054,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>38</v>
@@ -8411,19 +9063,23 @@
         <v>38</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>329</v>
+        <v>448</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>412</v>
+        <v>449</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>38</v>
       </c>
@@ -8459,56 +9115,56 @@
         <v>38</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>38</v>
+        <v>234</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>414</v>
+        <v>38</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>415</v>
+        <v>455</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>38</v>
+        <v>456</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>38</v>
       </c>
@@ -8517,7 +9173,7 @@
         <v>36</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>38</v>
@@ -8529,16 +9185,20 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>335</v>
+        <v>459</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>336</v>
+        <v>460</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>38</v>
       </c>
@@ -8586,19 +9246,19 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>338</v>
+        <v>454</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>339</v>
+        <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>38</v>
+        <v>463</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
@@ -8610,29 +9270,29 @@
         <v>38</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>340</v>
+        <v>464</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>38</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>417</v>
+        <v>467</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>38</v>
@@ -8644,17 +9304,15 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>96</v>
+        <v>335</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>38</v>
@@ -8703,19 +9361,19 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>38</v>
+        <v>338</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>38</v>
@@ -8727,7 +9385,7 @@
         <v>38</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>38</v>
@@ -8735,14 +9393,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>418</v>
+        <v>468</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>345</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8755,26 +9413,24 @@
         <v>38</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>346</v>
+        <v>97</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>38</v>
       </c>
@@ -8810,19 +9466,19 @@
         <v>38</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>38</v>
+        <v>342</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>38</v>
+        <v>343</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>38</v>
+        <v>234</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
@@ -8834,7 +9490,7 @@
         <v>38</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
@@ -8846,7 +9502,7 @@
         <v>38</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>92</v>
+        <v>339</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>38</v>
@@ -8854,10 +9510,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8865,10 +9521,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>38</v>
@@ -8877,21 +9533,23 @@
         <v>38</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>38</v>
       </c>
@@ -8915,13 +9573,13 @@
         <v>38</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>424</v>
+        <v>38</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>425</v>
+        <v>38</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>426</v>
+        <v>38</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>38</v>
@@ -8939,42 +9597,42 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>419</v>
+        <v>477</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>414</v>
+        <v>38</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>428</v>
+        <v>479</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8985,32 +9643,36 @@
         <v>36</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="Q63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="R63" t="s" s="2">
         <v>38</v>
       </c>
@@ -9030,13 +9692,13 @@
         <v>38</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>38</v>
@@ -9054,42 +9716,42 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>429</v>
+        <v>488</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>434</v>
+        <v>489</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>435</v>
+        <v>490</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>436</v>
+        <v>491</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>436</v>
+        <v>492</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9100,7 +9762,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>38</v>
@@ -9109,21 +9771,21 @@
         <v>38</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>437</v>
+        <v>359</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>38</v>
       </c>
@@ -9171,33 +9833,3646 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>436</v>
+        <v>496</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH64" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y66" s="2"/>
+      <c r="Z66" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G68" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="AI64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AO64" t="s" s="2">
+      <c r="H68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="P82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y88" s="2"/>
+      <c r="Z88" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AO95" t="s" s="2">
         <v>38</v>
       </c>
     </row>
